--- a/original-sources/historical/demo/dshs_06_30.xlsx
+++ b/original-sources/historical/demo/dshs_06_30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5657AC47-0F1E-4558-8A6B-6A6437A83F0C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E064965-5F2B-4C30-BC29-221D0C066FA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="337">
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/29 at 10:45AM CST</t>
+    <t>COVID-19 Cases and Fatalities by County as of 6/30 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/29 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/30 at 10:45AM CST</t>
   </si>
   <si>
     <t>Date</t>
@@ -839,7 +839,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/29 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/30 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/29 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/30 at 3:00PM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -892,7 +892,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/29 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/30 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -913,7 +913,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 6/28 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 6/29 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -925,7 +925,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/29 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/30 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -946,7 +946,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/29 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/30 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -955,7 +955,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/29 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/30 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1010,10 +1010,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          21,290</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/29 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          21,361</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/30 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1025,7 +1025,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/29 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/30 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1046,19 +1046,19 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/29 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/30 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          662</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/29 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/29 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>06/16/2020-TDCJ*</t>
+    <t>Gender of Confirmed Fatalities as of 6/30 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/30 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>06/16/20-TDCJ*</t>
   </si>
   <si>
     <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
@@ -1219,9 +1219,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1230,6 +1227,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1371,7 +1371,6 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1405,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1416,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1427,7 +1426,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C5" s="4">
         <v>6</v>
@@ -1438,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1449,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -1471,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1482,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1493,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1515,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
@@ -1548,10 +1547,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>1128</v>
+        <v>1187</v>
       </c>
       <c r="C16" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>10147</v>
+        <v>10797</v>
       </c>
       <c r="C17" s="4">
         <v>109</v>
@@ -1603,7 +1602,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C21" s="4">
         <v>13</v>
@@ -1614,7 +1613,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>2217</v>
+        <v>2269</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1625,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1822</v>
+        <v>1943</v>
       </c>
       <c r="C23" s="4">
         <v>29</v>
@@ -1636,10 +1635,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1669,7 +1668,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -1702,7 +1701,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
@@ -1713,7 +1712,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1735,7 +1734,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>2183</v>
+        <v>2296</v>
       </c>
       <c r="C33" s="4">
         <v>55</v>
@@ -1779,7 +1778,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1790,7 +1789,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -1801,7 +1800,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1823,7 +1822,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -1867,7 +1866,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>2763</v>
+        <v>2882</v>
       </c>
       <c r="C45" s="4">
         <v>42</v>
@@ -1911,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -1922,7 +1921,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -1933,7 +1932,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1944,7 +1943,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -1966,7 +1965,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C54" s="4">
         <v>8</v>
@@ -1977,7 +1976,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
@@ -1988,7 +1987,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2010,7 +2009,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2021,10 +2020,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>20165</v>
+        <v>20737</v>
       </c>
       <c r="C59" s="4">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2032,7 +2031,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -2054,7 +2053,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C62" s="4">
         <v>16</v>
@@ -2076,7 +2075,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>2670</v>
+        <v>2740</v>
       </c>
       <c r="C64" s="4">
         <v>37</v>
@@ -2098,7 +2097,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2120,7 +2119,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2131,7 +2130,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -2142,7 +2141,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="C70" s="4">
         <v>7</v>
@@ -2164,10 +2163,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>5745</v>
+        <v>5928</v>
       </c>
       <c r="C72" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2175,7 +2174,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>711</v>
+        <v>820</v>
       </c>
       <c r="C73" s="4">
         <v>19</v>
@@ -2186,7 +2185,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2197,7 +2196,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2208,7 +2207,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C76" s="4">
         <v>7</v>
@@ -2241,7 +2240,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2263,7 +2262,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>3716</v>
+        <v>3722</v>
       </c>
       <c r="C81" s="4">
         <v>53</v>
@@ -2296,7 +2295,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2307,7 +2306,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2318,7 +2317,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>2923</v>
+        <v>3062</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2340,7 +2339,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2362,7 +2361,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
@@ -2373,7 +2372,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2395,7 +2394,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -2406,7 +2405,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C94" s="4">
         <v>13</v>
@@ -2417,7 +2416,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>355</v>
+        <v>513</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2428,7 +2427,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>638</v>
+        <v>698</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -2439,7 +2438,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="C97" s="4">
         <v>7</v>
@@ -2483,7 +2482,7 @@
         <v>102</v>
       </c>
       <c r="B101" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
@@ -2494,7 +2493,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2505,10 +2504,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>29276</v>
+        <v>30729</v>
       </c>
       <c r="C103" s="4">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2516,7 +2515,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C104" s="4">
         <v>30</v>
@@ -2527,7 +2526,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
@@ -2538,7 +2537,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
@@ -2549,7 +2548,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>2586</v>
+        <v>2661</v>
       </c>
       <c r="C107" s="4">
         <v>6</v>
@@ -2571,7 +2570,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C109" s="4">
         <v>4</v>
@@ -2582,7 +2581,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>3294</v>
+        <v>3542</v>
       </c>
       <c r="C110" s="4">
         <v>32</v>
@@ -2604,7 +2603,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -2615,7 +2614,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C113" s="4">
         <v>4</v>
@@ -2626,7 +2625,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2648,7 +2647,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2681,7 +2680,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2703,7 +2702,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -2714,7 +2713,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2736,7 +2735,7 @@
         <v>125</v>
       </c>
       <c r="B124" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
@@ -2747,10 +2746,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1638</v>
+        <v>1787</v>
       </c>
       <c r="C125" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2758,7 +2757,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2769,7 +2768,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2780,7 +2779,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2791,7 +2790,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2802,7 +2801,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2813,7 +2812,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="C131" s="4">
         <v>4</v>
@@ -2824,7 +2823,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2857,7 +2856,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2868,7 +2867,7 @@
         <v>137</v>
       </c>
       <c r="B136" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C136" s="4">
         <v>0</v>
@@ -2901,7 +2900,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2912,7 +2911,7 @@
         <v>141</v>
       </c>
       <c r="B140" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
@@ -2923,7 +2922,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -2934,7 +2933,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C142" s="4">
         <v>13</v>
@@ -2945,7 +2944,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -2967,7 +2966,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -2978,7 +2977,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -3000,7 +2999,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3011,7 +3010,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3033,7 +3032,7 @@
         <v>152</v>
       </c>
       <c r="B151" s="4">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3044,7 +3043,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3066,7 +3065,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>2041</v>
+        <v>2095</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3077,7 +3076,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3088,7 +3087,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3110,7 +3109,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3132,7 +3131,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3154,7 +3153,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3165,10 +3164,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>744</v>
+        <v>795</v>
       </c>
       <c r="C163" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3187,7 +3186,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3198,7 +3197,7 @@
         <v>167</v>
       </c>
       <c r="B166" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3209,7 +3208,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>563</v>
+        <v>651</v>
       </c>
       <c r="C167" s="4">
         <v>14</v>
@@ -3220,7 +3219,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3242,7 +3241,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3253,7 +3252,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -3264,7 +3263,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1952</v>
+        <v>2028</v>
       </c>
       <c r="C172" s="4">
         <v>36</v>
@@ -3275,7 +3274,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C173" s="4">
         <v>15</v>
@@ -3308,7 +3307,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C176" s="4">
         <v>26</v>
@@ -3319,7 +3318,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C177" s="4">
         <v>6</v>
@@ -3352,10 +3351,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>1915</v>
+        <v>2120</v>
       </c>
       <c r="C180" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3385,7 +3384,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -3396,7 +3395,7 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
@@ -3418,7 +3417,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3429,7 +3428,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C187" s="4">
         <v>8</v>
@@ -3440,7 +3439,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3451,7 +3450,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3462,7 +3461,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2858</v>
+        <v>2873</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
@@ -3473,7 +3472,7 @@
         <v>192</v>
       </c>
       <c r="B191" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -3484,7 +3483,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -3495,10 +3494,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="C193" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3506,7 +3505,7 @@
         <v>195</v>
       </c>
       <c r="B194" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -3528,7 +3527,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C196" s="4">
         <v>10</v>
@@ -3539,7 +3538,7 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -3583,7 +3582,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="C201" s="4">
         <v>16</v>
@@ -3594,7 +3593,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -3605,7 +3604,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C203" s="4">
         <v>3</v>
@@ -3616,7 +3615,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C204" s="4">
         <v>1</v>
@@ -3627,7 +3626,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C205" s="4">
         <v>7</v>
@@ -3638,7 +3637,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -3649,7 +3648,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3671,7 +3670,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -3704,7 +3703,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C212" s="4">
         <v>9</v>
@@ -3726,7 +3725,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3737,7 +3736,7 @@
         <v>216</v>
       </c>
       <c r="B215" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -3748,7 +3747,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="C216" s="4">
         <v>3</v>
@@ -3759,7 +3758,7 @@
         <v>218</v>
       </c>
       <c r="B217" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -3792,7 +3791,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -3814,7 +3813,7 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>11476</v>
+        <v>11739</v>
       </c>
       <c r="C222" s="4">
         <v>225</v>
@@ -3825,7 +3824,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3836,7 +3835,7 @@
         <v>225</v>
       </c>
       <c r="B224" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
@@ -3847,7 +3846,7 @@
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -3869,7 +3868,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -3880,7 +3879,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3891,10 +3890,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>8461</v>
+        <v>8969</v>
       </c>
       <c r="C229" s="4">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3924,7 +3923,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3935,7 +3934,7 @@
         <v>234</v>
       </c>
       <c r="B233" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -3946,7 +3945,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C234" s="4">
         <v>1</v>
@@ -3968,7 +3967,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
@@ -3990,7 +3989,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1981</v>
+        <v>1991</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4001,7 +4000,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4012,7 +4011,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4023,7 +4022,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C241" s="4">
         <v>31</v>
@@ -4034,7 +4033,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>1457</v>
+        <v>1503</v>
       </c>
       <c r="C242" s="4">
         <v>25</v>
@@ -4045,7 +4044,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4067,7 +4066,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4078,7 +4077,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4089,7 +4088,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4100,10 +4099,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>2019</v>
+        <v>2100</v>
       </c>
       <c r="C248" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4111,7 +4110,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4122,7 +4121,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4133,7 +4132,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
@@ -4144,7 +4143,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4155,7 +4154,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4166,7 +4165,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4177,7 +4176,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4188,7 +4187,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4199,10 +4198,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>153011</v>
+        <v>159986</v>
       </c>
       <c r="C257" s="4">
-        <v>2403</v>
+        <v>2424</v>
       </c>
     </row>
   </sheetData>
@@ -4220,7 +4219,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4254,11 +4253,11 @@
         <v>322</v>
       </c>
       <c r="B3" s="11">
-        <v>10345</v>
+        <v>10371</v>
       </c>
       <c r="C3" s="20">
         <f>B3/B$6</f>
-        <v>0.48590887740723343</v>
+        <v>0.48551097795047049</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4266,11 +4265,11 @@
         <v>323</v>
       </c>
       <c r="B4" s="11">
-        <v>10753</v>
+        <v>10800</v>
       </c>
       <c r="C4" s="20">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.50507280413339595</v>
+        <v>0.50559430738261313</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4278,11 +4277,11 @@
         <v>317</v>
       </c>
       <c r="B5" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" si="0"/>
-        <v>9.0183184593705962E-3</v>
+        <v>8.8947146669163431E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4290,7 +4289,7 @@
         <v>258</v>
       </c>
       <c r="B6" s="11">
-        <v>21290</v>
+        <v>21361</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" si="0"/>
@@ -4328,7 +4327,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4362,11 +4361,11 @@
         <v>326</v>
       </c>
       <c r="B3" s="11">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C3" s="20">
         <f>B3/B$9</f>
-        <v>2.8276186002818223E-2</v>
+        <v>2.8275829783249849E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4374,11 +4373,11 @@
         <v>327</v>
       </c>
       <c r="B4" s="11">
-        <v>2537</v>
+        <v>2548</v>
       </c>
       <c r="C4" s="20">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11916392672616252</v>
+        <v>0.11928280511212022</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4386,11 +4385,11 @@
         <v>328</v>
       </c>
       <c r="B5" s="11">
-        <v>7763</v>
+        <v>7803</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" si="0"/>
-        <v>0.36463128229215597</v>
+        <v>0.365291887083938</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,11 +4397,11 @@
         <v>329</v>
       </c>
       <c r="B6" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" si="0"/>
-        <v>5.4955378111789573E-3</v>
+        <v>5.5240859510322553E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4410,11 +4409,11 @@
         <v>330</v>
       </c>
       <c r="B7" s="11">
-        <v>5615</v>
+        <v>5628</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v>0.26373884452794738</v>
+        <v>0.26347081129160621</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4422,11 +4421,11 @@
         <v>317</v>
       </c>
       <c r="B8" s="11">
-        <v>4656</v>
+        <v>4660</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v>0.21869422263973698</v>
+        <v>0.21815458077805347</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4434,7 +4433,7 @@
         <v>258</v>
       </c>
       <c r="B9" s="11">
-        <v>21290</v>
+        <v>21361</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" si="0"/>
@@ -4472,7 +4471,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4700,7 +4699,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4808,7 +4807,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4948,17 +4947,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -5313,7 +5312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43935</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43952</v>
       </c>
@@ -6639,19 +6638,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
+    <row r="100" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>44012</v>
+      </c>
+      <c r="B100" s="4">
+        <v>159986</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2424</v>
+      </c>
+      <c r="D100" s="4">
+        <v>6975</v>
+      </c>
+      <c r="E100" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6664,7 +6680,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6690,10 +6706,10 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>81335</v>
+        <v>84817.600000000006</v>
       </c>
       <c r="B3" s="8">
-        <v>69273</v>
+        <v>72744</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
@@ -6714,12 +6730,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6727,7 +6743,7 @@
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6756,7 +6772,7 @@
       <c r="D2" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>274</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -6782,7 +6798,7 @@
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -6808,7 +6824,7 @@
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -6834,7 +6850,7 @@
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -6860,7 +6876,7 @@
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -6886,7 +6902,7 @@
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -6912,7 +6928,7 @@
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -6938,7 +6954,7 @@
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -6964,7 +6980,7 @@
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -6990,7 +7006,7 @@
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -7016,7 +7032,7 @@
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -7042,7 +7058,7 @@
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -7068,7 +7084,7 @@
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -7094,7 +7110,7 @@
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -7120,7 +7136,7 @@
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -7146,7 +7162,7 @@
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -7172,7 +7188,7 @@
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -7198,7 +7214,7 @@
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -7224,7 +7240,7 @@
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -7250,7 +7266,7 @@
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -7276,7 +7292,7 @@
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -7302,7 +7318,7 @@
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -7328,7 +7344,7 @@
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -7341,7 +7357,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
@@ -7354,7 +7370,7 @@
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -7380,7 +7396,7 @@
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -7406,7 +7422,7 @@
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -7432,7 +7448,7 @@
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="17">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -7458,7 +7474,7 @@
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -7484,7 +7500,7 @@
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="17">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -7510,7 +7526,7 @@
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="17">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -7536,7 +7552,7 @@
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -7562,7 +7578,7 @@
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -7588,7 +7604,7 @@
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -7614,7 +7630,7 @@
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -7640,7 +7656,7 @@
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="17">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -7666,7 +7682,7 @@
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="17">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -7692,7 +7708,7 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="17">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -7718,7 +7734,7 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -7744,7 +7760,7 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="17">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -7770,7 +7786,7 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="17">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -7783,7 +7799,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
@@ -7796,7 +7812,7 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="17">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -7822,7 +7838,7 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="17">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8" t="s">
@@ -7848,7 +7864,7 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="17">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8" t="s">
@@ -7874,7 +7890,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="17">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7900,7 +7916,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="17">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7926,7 +7942,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="17">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7952,7 +7968,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="17">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7978,7 +7994,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="17">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -8004,7 +8020,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="17">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -8030,7 +8046,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="17">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -8056,7 +8072,7 @@
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>265</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -8082,7 +8098,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="17">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -8108,7 +8124,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="17">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -8134,7 +8150,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="17">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -8160,7 +8176,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="17">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -8186,7 +8202,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="17">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -8212,7 +8228,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="17">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -8238,7 +8254,7 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>265</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -8264,7 +8280,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="17">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -8290,7 +8306,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -8316,7 +8332,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="17">
         <v>6.6199999999999995E-2</v>
       </c>
       <c r="F62" s="8">
@@ -8342,7 +8358,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="17">
         <v>6.2600000000000003E-2</v>
       </c>
       <c r="F63" s="8">
@@ -8368,7 +8384,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="17">
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="F64" s="8">
@@ -8394,7 +8410,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="17">
         <v>6.4399999999999999E-2</v>
       </c>
       <c r="F65" s="8">
@@ -8420,7 +8436,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="17">
         <v>0.08</v>
       </c>
       <c r="F66" s="8">
@@ -8446,7 +8462,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="17">
         <v>7.11381708088E-2</v>
       </c>
       <c r="F67" s="8">
@@ -8472,7 +8488,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="17">
         <v>6.6600000000000006E-2</v>
       </c>
       <c r="F68" s="8">
@@ -8498,7 +8514,7 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="17">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F69" s="8">
@@ -8524,7 +8540,7 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="17">
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="F70" s="8">
@@ -8550,7 +8566,7 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="17">
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="F71" s="8">
@@ -8576,7 +8592,7 @@
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="17">
         <v>7.22E-2</v>
       </c>
       <c r="F72" s="8">
@@ -8602,7 +8618,7 @@
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="17">
         <v>6.1100000000000002E-2</v>
       </c>
       <c r="F73" s="8">
@@ -8628,7 +8644,7 @@
       <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="17">
         <v>6.6219239373599997E-2</v>
       </c>
       <c r="F74" s="8">
@@ -8654,7 +8670,7 @@
       <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="17">
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="F75" s="8">
@@ -8680,7 +8696,7 @@
       <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="17">
         <v>6.9400000000000003E-2</v>
       </c>
       <c r="F76" s="8">
@@ -8706,7 +8722,7 @@
       <c r="D77" s="8">
         <v>1560537</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="17">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F77" s="8">
@@ -8732,7 +8748,7 @@
       <c r="D78" s="8">
         <v>1576925</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="17">
         <v>8.5257188117199997E-2</v>
       </c>
       <c r="F78" s="8">
@@ -8758,7 +8774,7 @@
       <c r="D79" s="8">
         <v>1622851</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E79" s="17">
         <v>8.9399999999999993E-2</v>
       </c>
       <c r="F79" s="8">
@@ -8784,7 +8800,7 @@
       <c r="D80" s="8">
         <v>1690124</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="17">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F80" s="8">
@@ -8810,7 +8826,7 @@
       <c r="D81" s="8">
         <v>1715177</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="17">
         <v>9.5100000000000004E-2</v>
       </c>
       <c r="F81" s="8">
@@ -8836,7 +8852,7 @@
       <c r="D82" s="8">
         <v>1767701</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="17">
         <v>9.64E-2</v>
       </c>
       <c r="F82" s="8">
@@ -8862,7 +8878,7 @@
       <c r="D83" s="8">
         <v>1805642</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="17">
         <v>0.1042</v>
       </c>
       <c r="F83" s="8">
@@ -8888,7 +8904,7 @@
       <c r="D84" s="8">
         <v>1836037</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E84" s="17">
         <v>0.1176</v>
       </c>
       <c r="F84" s="8">
@@ -8914,7 +8930,7 @@
       <c r="D85" s="8">
         <v>1875197</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E85" s="17">
         <v>0.1173</v>
       </c>
       <c r="F85" s="8">
@@ -8940,7 +8956,7 @@
       <c r="D86" s="8">
         <v>1903661</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="17">
         <v>0.1323</v>
       </c>
       <c r="F86" s="8">
@@ -8966,7 +8982,7 @@
       <c r="D87" s="8">
         <v>1959617</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="17">
         <v>0.1431</v>
       </c>
       <c r="F87" s="8">
@@ -8992,7 +9008,7 @@
       <c r="D88" s="8">
         <v>2006724</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="17">
         <v>0.13739999999999999</v>
       </c>
       <c r="F88" s="8">
@@ -9009,43 +9025,57 @@
       <c r="A89" s="6">
         <v>44011</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>265</v>
+      <c r="B89" s="8">
+        <v>1869282</v>
+      </c>
+      <c r="C89" s="8">
+        <v>192657</v>
       </c>
       <c r="D89" s="8">
         <v>2061939</v>
       </c>
-      <c r="E89" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+      <c r="E89" s="17">
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="F89" s="8">
+        <v>38856</v>
+      </c>
+      <c r="G89" s="8">
+        <v>3178</v>
+      </c>
+      <c r="H89" s="8">
+        <v>42034</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>44012</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" s="8">
+        <v>2119036</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="92" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -9055,11 +9085,23 @@
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
     </row>
+    <row r="93" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A91:H91"/>
     <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A93:H93"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9072,8 +9114,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9101,7 +9143,7 @@
         <v>283</v>
       </c>
       <c r="B3" s="8">
-        <v>84533</v>
+        <v>84899</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9109,7 +9151,7 @@
         <v>284</v>
       </c>
       <c r="B4" s="8">
-        <v>1977406</v>
+        <v>2034137</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9117,7 +9159,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="8">
-        <v>2061939</v>
+        <v>2119036</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9142,8 +9184,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9171,7 +9213,7 @@
         <v>289</v>
       </c>
       <c r="B3" s="8">
-        <v>187535</v>
+        <v>192657</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9179,7 +9221,7 @@
         <v>290</v>
       </c>
       <c r="B4" s="8">
-        <v>6973</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9204,8 +9246,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9233,7 +9275,7 @@
         <v>293</v>
       </c>
       <c r="B3" s="9">
-        <v>5913</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9241,7 +9283,7 @@
         <v>294</v>
       </c>
       <c r="B4" s="9">
-        <v>54244</v>
+        <v>55266</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9249,7 +9291,7 @@
         <v>295</v>
       </c>
       <c r="B5" s="9">
-        <v>13825</v>
+        <v>13711</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9257,7 +9299,7 @@
         <v>296</v>
       </c>
       <c r="B6" s="9">
-        <v>1411</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9265,7 +9307,7 @@
         <v>297</v>
       </c>
       <c r="B7" s="9">
-        <v>5670</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9286,11 +9328,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -9561,7 +9603,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -9748,7 +9790,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -10276,17 +10318,28 @@
         <v>5913</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="6">
+        <v>44012</v>
+      </c>
+      <c r="C90" s="9">
+        <v>6533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10299,7 +10352,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -10337,7 +10390,7 @@
       </c>
       <c r="C3" s="20">
         <f>B3/B$16</f>
-        <v>3.992484734617191E-3</v>
+        <v>3.9792144562520483E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10345,11 +10398,11 @@
         <v>306</v>
       </c>
       <c r="B4" s="11">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C4" s="20">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.611085016439643E-2</v>
+        <v>1.6104114975890642E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10357,11 +10410,11 @@
         <v>307</v>
       </c>
       <c r="B5" s="11">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" si="0"/>
-        <v>4.3823391263503993E-2</v>
+        <v>4.4052244745096204E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10369,11 +10422,11 @@
         <v>308</v>
       </c>
       <c r="B6" s="11">
-        <v>3628</v>
+        <v>3644</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" si="0"/>
-        <v>0.17040864255519023</v>
+        <v>0.17059126445391135</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10381,11 +10434,11 @@
         <v>309</v>
       </c>
       <c r="B7" s="11">
-        <v>3914</v>
+        <v>3933</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v>0.18384217942696102</v>
+        <v>0.1841205936051683</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10393,11 +10446,11 @@
         <v>310</v>
       </c>
       <c r="B8" s="11">
-        <v>3864</v>
+        <v>3876</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v>0.18149365899483325</v>
+        <v>0.18145217920509341</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10405,11 +10458,11 @@
         <v>311</v>
       </c>
       <c r="B9" s="11">
-        <v>3691</v>
+        <v>3699</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" si="0"/>
-        <v>0.1733677782996712</v>
+        <v>0.17316605027854501</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10417,11 +10470,11 @@
         <v>312</v>
       </c>
       <c r="B10" s="11">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" si="0"/>
-        <v>6.9328323156411464E-2</v>
+        <v>6.9191517251065024E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10429,11 +10482,11 @@
         <v>313</v>
       </c>
       <c r="B11" s="11">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" si="0"/>
-        <v>5.1009863785814936E-2</v>
+        <v>5.0793502176864382E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10441,11 +10494,11 @@
         <v>314</v>
       </c>
       <c r="B12" s="11">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" si="0"/>
-        <v>3.2738374823860966E-2</v>
+        <v>3.2723187116708019E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10453,11 +10506,11 @@
         <v>315</v>
       </c>
       <c r="B13" s="11">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" si="0"/>
-        <v>2.470643494598403E-2</v>
+        <v>2.4717943916483312E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10465,11 +10518,11 @@
         <v>316</v>
       </c>
       <c r="B14" s="11">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" si="0"/>
-        <v>4.9178017848755286E-2</v>
+        <v>4.9108187818922337E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10489,7 +10542,7 @@
         <v>258</v>
       </c>
       <c r="B16" s="11">
-        <v>21290</v>
+        <v>21361</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" si="0"/>
